--- a/addressbook-web-tests/addressbook-web-tests/contact.xlsx
+++ b/addressbook-web-tests/addressbook-web-tests/contact.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liza\source\repos\ElizavetaGu\csharp_training\addressbook-web-tests\addressbook-test-data-generators\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liza\source\repos\ElizavetaGu\csharp_training\addressbook-web-tests\addressbook-web-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,28 +26,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>P63E[(QW&gt;K</t>
-  </si>
-  <si>
-    <t>S`"3HN&amp;0^4D;.NX3)T`5=,XK%@N%EWR:WYVDG;#%RV1L,\%X#VH#?64G(7-( "K(C*E6Y5MOQ[</t>
-  </si>
-  <si>
-    <t>H[,?+:W"P.P\AF/&lt;/-\%Q**)"6Q`O)Z3ETML]Y#O* \ZT/$QJZ&gt;BUV</t>
-  </si>
-  <si>
-    <t>&gt;R#=VKX3G5=7NZC@7+.\P/06T2a5VM8?Qa/\Z&lt;.$3N6E8Y7X':'7G[#/BNJDKC&gt;[^_GOKIG\^*H#ZL_\</t>
-  </si>
-  <si>
-    <t xml:space="preserve">).&lt;F!XV] </t>
-  </si>
-  <si>
-    <t>+SK:R0&lt;H:2I-?T+:=3!6VQOHB4"5]&amp;RRK/;)2QWT</t>
-  </si>
-  <si>
-    <t>%EK3]PI;G;C]KE&lt;$#X=.&amp;K4AXC09"(M=.XR,$5GE:[6L/Wa</t>
-  </si>
-  <si>
-    <t>a%/Z:F8:1*&lt;:@08?O'OUT0 O2YU,5H2!CF9_ZT#I@7\[Z-%*CX^(',XQ%AHBR,%JX;X</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>bfgdfgh</t>
+  </si>
+  <si>
+    <t>adfdfgs</t>
+  </si>
+  <si>
+    <t>fsgf</t>
+  </si>
+  <si>
+    <t>dsfd</t>
+  </si>
+  <si>
+    <t>sdg</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>nvbcc</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -376,24 +378,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
